--- a/laser.xlsx
+++ b/laser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emree\Desktop\443\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428ADB11-5916-462D-B569-B42D948DB564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033EE10F-05BC-4D22-8378-4E8A90B96047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{02C65820-ADED-4EF2-BD3C-D56410338115}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{02C65820-ADED-4EF2-BD3C-D56410338115}"/>
   </bookViews>
   <sheets>
     <sheet name="Triangular" sheetId="1" r:id="rId1"/>
@@ -483,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FE0A1D-4E13-4C40-9B86-ED65DAB9D239}">
   <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3:I23"/>
     </sheetView>
   </sheetViews>
@@ -764,10 +764,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BA208D-14DE-40CF-AD54-645FD56E578F}">
-  <dimension ref="D1:F19"/>
+  <dimension ref="D1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,6 +861,9 @@
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>7</v>
+      </c>
       <c r="E9">
         <v>19.7</v>
       </c>
@@ -869,6 +872,9 @@
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>8</v>
+      </c>
       <c r="E10">
         <v>18.8</v>
       </c>
@@ -877,6 +883,9 @@
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>9</v>
+      </c>
       <c r="E11">
         <v>18.100000000000001</v>
       </c>
@@ -885,6 +894,9 @@
       </c>
     </row>
     <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>10</v>
+      </c>
       <c r="E12">
         <v>17.2</v>
       </c>
@@ -893,6 +905,9 @@
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>11</v>
+      </c>
       <c r="E13">
         <v>16.399999999999999</v>
       </c>
@@ -901,6 +916,9 @@
       </c>
     </row>
     <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>12</v>
+      </c>
       <c r="E14">
         <v>15.5</v>
       </c>
@@ -909,6 +927,9 @@
       </c>
     </row>
     <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>13</v>
+      </c>
       <c r="E15">
         <v>14.7</v>
       </c>
@@ -917,6 +938,9 @@
       </c>
     </row>
     <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>14</v>
+      </c>
       <c r="E16">
         <v>13.8</v>
       </c>
@@ -924,22 +948,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>15</v>
+      </c>
       <c r="E17">
         <v>12.9</v>
       </c>
       <c r="F17">
         <v>35.6</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F18">
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F19">
-        <v>37.1</v>
       </c>
     </row>
   </sheetData>
@@ -952,7 +969,7 @@
   <dimension ref="D1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/laser.xlsx
+++ b/laser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emree\Desktop\443\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033EE10F-05BC-4D22-8378-4E8A90B96047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268792C3-C1D6-4C89-BA5E-1DE89CE5335D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{02C65820-ADED-4EF2-BD3C-D56410338115}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{02C65820-ADED-4EF2-BD3C-D56410338115}"/>
   </bookViews>
   <sheets>
     <sheet name="Triangular" sheetId="1" r:id="rId1"/>
@@ -766,7 +766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BA208D-14DE-40CF-AD54-645FD56E578F}">
   <dimension ref="D1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -968,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F1F043-BED8-4623-BFF0-57F7FAE534EB}">
   <dimension ref="D1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/laser.xlsx
+++ b/laser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emree\Desktop\443\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268792C3-C1D6-4C89-BA5E-1DE89CE5335D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BAA078-7093-4C56-8FBF-51558D65E4B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{02C65820-ADED-4EF2-BD3C-D56410338115}"/>
+    <workbookView xWindow="8250" yWindow="1065" windowWidth="28800" windowHeight="13890" activeTab="3" xr2:uid="{02C65820-ADED-4EF2-BD3C-D56410338115}"/>
   </bookViews>
   <sheets>
     <sheet name="Triangular" sheetId="1" r:id="rId1"/>
@@ -966,85 +966,130 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F1F043-BED8-4623-BFF0-57F7FAE534EB}">
-  <dimension ref="D1:D15"/>
+  <dimension ref="C1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C1" sqref="C1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>1</v>
+      </c>
       <c r="D1">
         <v>0.38</v>
       </c>
     </row>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>2</v>
+      </c>
       <c r="D2">
         <v>1.02</v>
       </c>
     </row>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>3</v>
+      </c>
       <c r="D3">
         <v>1.28</v>
       </c>
     </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>4</v>
+      </c>
       <c r="D4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>5</v>
+      </c>
       <c r="D5">
         <v>1.67</v>
       </c>
     </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>6</v>
+      </c>
       <c r="D6">
         <v>1.81</v>
       </c>
     </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>7</v>
+      </c>
       <c r="D7">
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>8</v>
+      </c>
       <c r="D8">
         <v>2.04</v>
       </c>
     </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>9</v>
+      </c>
       <c r="D9">
         <v>2.16</v>
       </c>
     </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>10</v>
+      </c>
       <c r="D10">
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>11</v>
+      </c>
       <c r="D11">
         <v>2.36</v>
       </c>
     </row>
-    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>12</v>
+      </c>
       <c r="D12">
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>13</v>
+      </c>
       <c r="D13">
         <v>2.56</v>
       </c>
     </row>
-    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>14</v>
+      </c>
       <c r="D14">
         <v>2.65</v>
       </c>
     </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>15</v>
+      </c>
       <c r="D15">
         <v>2.75</v>
       </c>
